--- a/文档/转转卡/项目加班与支出/费用支出.xlsx
+++ b/文档/转转卡/项目加班与支出/费用支出.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="31">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,17 +81,10 @@
     <t>招待费</t>
   </si>
   <si>
-    <t>加班费</t>
-  </si>
-  <si>
     <t>杨智敏、贺佳绩、丁旭、马冬冬、丁竹青、沈照、蒋兵兵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>已转账</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>张旺、贺佳绩、丁旭、马冬冬、蒋兵兵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -101,6 +94,48 @@
   </si>
   <si>
     <t>张静（开发）、丁旭、马冬冬、蒋兵兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发票已提交至杨老师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨老师已转账</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周末加班费</t>
+  </si>
+  <si>
+    <t>工作日加班费</t>
+  </si>
+  <si>
+    <t>贺佳绩、陈矗、张静（开发）、丁旭、马冬冬、蒋兵兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贺佳绩、张旺、丁旭、蒋兵兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贺佳绩、马冬冬、张静(开发)、丁旭、蒋兵兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁竹青、沈照、贺佳绩、马冬冬、张静(开发)、丁旭、蒋兵兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马冬冬、尤悦、丁旭、蒋兵兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨智敏、张静（开发）、贺佳绩、丁旭、蒋兵兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马冬冬、尤悦、沈照、贺佳绩、丁旭、蒋兵兵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -502,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G12"/>
+  <dimension ref="B2:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -553,7 +588,9 @@
       <c r="F3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="3"/>
+      <c r="G3" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B4" s="4">
@@ -569,7 +606,7 @@
         <v>80</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>8</v>
@@ -589,7 +626,7 @@
         <v>54</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G5" s="3"/>
     </row>
@@ -607,10 +644,10 @@
         <v>100</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.15">
@@ -627,7 +664,7 @@
         <v>253</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G7" s="3"/>
     </row>
@@ -639,11 +676,11 @@
         <v>12</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G8" s="3"/>
     </row>
@@ -655,13 +692,13 @@
         <v>10</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E9" s="2">
         <v>135</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G9" s="3"/>
     </row>
@@ -673,13 +710,13 @@
         <v>10</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E10" s="2">
         <v>109</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G10" s="3"/>
     </row>
@@ -691,13 +728,13 @@
         <v>10</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E11" s="2">
         <v>83</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G11" s="3"/>
     </row>
@@ -709,24 +746,171 @@
         <v>10</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E12" s="2">
         <v>109</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B13" s="4">
+        <v>43079</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="2">
+        <v>113.5</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B14" s="4">
+        <v>43080</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="2">
+        <v>167</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B15" s="4">
+        <v>43081</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="2">
+        <v>67</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B16" s="4">
+        <v>43082</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="2">
+        <v>93.5</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B17" s="4">
+        <v>43083</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="2">
+        <v>141</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B18" s="4">
+        <v>43085</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="2">
+        <v>83</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B19" s="4">
+        <v>43087</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="2">
+        <v>121</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B20" s="4">
+        <v>43087</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="2">
+        <v>135</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E7:E8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F45">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F28:F45">
       <formula1>"招待费,加班费"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F27">
+      <formula1>"招待费,周末加班费,工作日加班费"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/文档/转转卡/项目加班与支出/费用支出.xlsx
+++ b/文档/转转卡/项目加班与支出/费用支出.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="42">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -136,6 +136,50 @@
   </si>
   <si>
     <t>马冬冬、尤悦、沈照、贺佳绩、丁旭、蒋兵兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马冬冬、沈照、贺佳绩、丁旭、蒋兵兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马冬冬、贺佳绩、丁旭、蒋兵兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尤悦、张静（开发）、马冬冬、贺佳绩、丁旭、蒋兵兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张旺、张静（开发）、丁竹青、马冬冬、贺佳绩、丁旭、蒋兵兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨智敏、沈照、丁竹青、马冬冬、贺佳绩、丁旭、蒋兵兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨智敏、尤悦、张静（开发）、丁竹青、马冬冬、贺佳绩、丁旭、蒋兵兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨智敏、尤悦、张静（开发）、丁竹青、马冬冬、贺佳绩、丁旭、蒋兵兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沈照、张旺、贺佳绩、尤悦、蒋兵兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨智敏、尤悦、张静（开发）、沈照、马冬冬、贺佳绩、丁旭、蒋兵兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨智敏、尤悦、张静（开发）沈照、张旺、丁竹青、马冬冬、贺佳绩、丁旭、蒋兵兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张静（开发）、马冬冬、贺佳绩、丁旭、蒋兵兵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -537,17 +581,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G20"/>
+  <dimension ref="B2:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="14.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="77.5" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="12.375" style="1" customWidth="1"/>
     <col min="7" max="7" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -884,7 +928,7 @@
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B20" s="4">
-        <v>43087</v>
+        <v>43088</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>10</v>
@@ -899,6 +943,204 @@
         <v>23</v>
       </c>
       <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B21" s="4">
+        <v>43089</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="2">
+        <v>109</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B22" s="4">
+        <v>43090</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="2">
+        <v>87.5</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B23" s="4">
+        <v>43093</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="2">
+        <v>152</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B24" s="4">
+        <v>43094</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="2">
+        <v>160</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B25" s="4">
+        <v>43095</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="2">
+        <v>140</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B26" s="4">
+        <v>43096</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="2">
+        <v>218</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B27" s="4">
+        <v>43097</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="2">
+        <v>204.4</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B28" s="4">
+        <v>43098</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" s="2">
+        <v>270</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B29" s="4">
+        <v>43101</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" s="2">
+        <v>95.9</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B30" s="4">
+        <v>43102</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="2">
+        <v>109</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B31" s="4">
+        <v>43103</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" s="2">
+        <v>198</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -906,10 +1148,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F28:F45">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F32:F45">
       <formula1>"招待费,加班费"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F31">
       <formula1>"招待费,周末加班费,工作日加班费"</formula1>
     </dataValidation>
   </dataValidations>

--- a/文档/转转卡/项目加班与支出/费用支出.xlsx
+++ b/文档/转转卡/项目加班与支出/费用支出.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="46">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -180,6 +180,22 @@
   </si>
   <si>
     <t>张静（开发）、马冬冬、贺佳绩、丁旭、蒋兵兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尤悦、丁竹青、张静（开发）、沈照、马冬冬、贺佳绩、丁旭、蒋兵兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张静（开发）、马冬冬、丁旭、蒋兵兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈锋、张静（开发）、沈照、张旺、丁竹青、马冬冬、贺佳绩、丁旭、蒋兵兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨智敏、陈锋、林季钊、沈照、张旺、丁竹青、马冬冬、贺佳绩、丁旭、蒋兵兵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -581,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G31"/>
+  <dimension ref="B2:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1142,16 +1158,106 @@
       </c>
       <c r="G31" s="3"/>
     </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B32" s="4">
+        <v>43104</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" s="2">
+        <v>273</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B33" s="4">
+        <v>43106</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" s="2">
+        <v>116</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B34" s="4">
+        <v>43107</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34" s="2">
+        <v>100</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B35" s="4">
+        <v>43108</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" s="2">
+        <v>257</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B36" s="4">
+        <v>43109</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E36" s="2">
+        <v>224.1</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G36" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E7:E8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F32:F45">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F37:F45">
       <formula1>"招待费,加班费"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F31">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F36">
       <formula1>"招待费,周末加班费,工作日加班费"</formula1>
     </dataValidation>
   </dataValidations>

--- a/文档/转转卡/项目加班与支出/费用支出.xlsx
+++ b/文档/转转卡/项目加班与支出/费用支出.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="42">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -180,22 +180,6 @@
   </si>
   <si>
     <t>张静（开发）、马冬冬、贺佳绩、丁旭、蒋兵兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>尤悦、丁竹青、张静（开发）、沈照、马冬冬、贺佳绩、丁旭、蒋兵兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张静（开发）、马冬冬、丁旭、蒋兵兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈锋、张静（开发）、沈照、张旺、丁竹青、马冬冬、贺佳绩、丁旭、蒋兵兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨智敏、陈锋、林季钊、沈照、张旺、丁竹青、马冬冬、贺佳绩、丁旭、蒋兵兵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -597,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G36"/>
+  <dimension ref="B2:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1158,106 +1142,16 @@
       </c>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B32" s="4">
-        <v>43104</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E32" s="2">
-        <v>273</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G32" s="3"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B33" s="4">
-        <v>43106</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E33" s="2">
-        <v>116</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G33" s="3"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B34" s="4">
-        <v>43107</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E34" s="2">
-        <v>100</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G34" s="3"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B35" s="4">
-        <v>43108</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E35" s="2">
-        <v>257</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G35" s="3"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B36" s="4">
-        <v>43109</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E36" s="2">
-        <v>224.1</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G36" s="3"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E7:E8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F37:F45">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F32:F45">
       <formula1>"招待费,加班费"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F36">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F31">
       <formula1>"招待费,周末加班费,工作日加班费"</formula1>
     </dataValidation>
   </dataValidations>

--- a/文档/转转卡/项目加班与支出/费用支出.xlsx
+++ b/文档/转转卡/项目加班与支出/费用支出.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="56">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -147,39 +147,76 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>联创大厦</t>
+  </si>
+  <si>
     <t>尤悦、张静（开发）、马冬冬、贺佳绩、丁旭、蒋兵兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张旺、张静（开发）、丁竹青、马冬冬、贺佳绩、丁旭、蒋兵兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>杨智敏、沈照、丁竹青、马冬冬、贺佳绩、丁旭、蒋兵兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>杨智敏、尤悦、张静（开发）、丁竹青、马冬冬、贺佳绩、丁旭、蒋兵兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨智敏、尤悦、张静（开发）、丁竹青、马冬冬、贺佳绩、丁旭、蒋兵兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨智敏、尤悦、张静（开发）沈照、张旺、丁竹青、马冬冬、贺佳绩、丁旭、蒋兵兵</t>
+  </si>
+  <si>
+    <t>张静（开发）、马冬冬、贺佳绩、丁旭、蒋兵兵</t>
   </si>
   <si>
     <t>沈照、张旺、贺佳绩、尤悦、蒋兵兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>杨智敏、尤悦、张静（开发）、沈照、马冬冬、贺佳绩、丁旭、蒋兵兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨智敏、尤悦、张静（开发）沈照、张旺、丁竹青、马冬冬、贺佳绩、丁旭、蒋兵兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张静（开发）、马冬冬、贺佳绩、丁旭、蒋兵兵</t>
+  </si>
+  <si>
+    <t>尤悦、丁竹青、张静（开发）、沈照、马冬冬、贺佳绩、丁旭、蒋兵兵</t>
+  </si>
+  <si>
+    <t>张静（开发）、马冬冬、丁旭、蒋兵兵</t>
+  </si>
+  <si>
+    <t>陈锋、张静（开发）、沈照、张旺、丁竹青、马冬冬、贺佳绩、丁旭、蒋兵兵</t>
+  </si>
+  <si>
+    <t>杨智敏、陈锋、林季钊、沈照、张旺、丁竹青、马冬冬、贺佳绩、丁旭、蒋兵兵</t>
+  </si>
+  <si>
+    <t>陈锋、张静（开发）、沈照、张旺、马冬冬、贺佳绩、丁旭、尤悦、林季钊、蒋兵兵</t>
+  </si>
+  <si>
+    <t>张静（开发）、沈照、张旺、丁旭、蒋兵兵</t>
+  </si>
+  <si>
+    <t>张静（开发）、尤悦、马冬冬、贺佳绩、张旺、沈照、丁旭、蒋兵兵</t>
+  </si>
+  <si>
+    <t>张静（开发）、马冬冬、杨智敏、丁旭、蒋兵兵</t>
+  </si>
+  <si>
+    <t>张静（开发）、沈照、马冬冬、尤悦、贺佳绩、张旺、林季钊、丁旭、蒋兵兵</t>
+  </si>
+  <si>
+    <t>张静（开发）、尤悦、贺佳绩、马冬冬、丁旭、蒋兵兵、张旺、杨智敏</t>
+  </si>
+  <si>
+    <t>张静（开发）、尤悦、贺佳绩、马冬冬、丁旭、张旺、沈照、林季钊、蒋兵兵、杨智敏</t>
+  </si>
+  <si>
+    <t>王森、马冬冬、丁竹青、沈照、张旺、丁旭、蒋兵兵、杨智敏、林季钊、陈矗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王森、马冬冬、丁竹青、沈照、张旺、丁旭、蒋兵兵、陈矗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张旺、王森、贺佳绩、马冬冬、沈照、丁竹青、 丁旭、蒋兵兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贺佳绩、张旺、王森、马冬冬、沈照、丁旭、丁竹青、林季钊、陈矗、尤悦、张静、蒋兵兵、陈锋</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -187,7 +224,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,13 +239,26 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -264,7 +314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -274,6 +324,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -581,17 +640,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G31"/>
+  <dimension ref="A2:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="14.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="77.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="90" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="12.375" style="1" customWidth="1"/>
     <col min="7" max="7" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -704,7 +763,7 @@
       <c r="D7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="10">
         <v>253</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -722,7 +781,7 @@
       <c r="D8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="6"/>
+      <c r="E8" s="11"/>
       <c r="F8" s="2" t="s">
         <v>23</v>
       </c>
@@ -872,7 +931,7 @@
       </c>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B17" s="4">
         <v>43083</v>
       </c>
@@ -890,7 +949,7 @@
       </c>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B18" s="4">
         <v>43085</v>
       </c>
@@ -908,7 +967,7 @@
       </c>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B19" s="4">
         <v>43087</v>
       </c>
@@ -926,7 +985,7 @@
       </c>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B20" s="4">
         <v>43088</v>
       </c>
@@ -944,7 +1003,7 @@
       </c>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B21" s="4">
         <v>43089</v>
       </c>
@@ -962,7 +1021,7 @@
       </c>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B22" s="4">
         <v>43090</v>
       </c>
@@ -980,178 +1039,483 @@
       </c>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B23" s="4">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B23" s="6">
         <v>43093</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" s="2">
+      <c r="C23" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="8">
         <v>152</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B24" s="4">
-        <v>43094</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E24" s="2">
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="9"/>
+      <c r="B24" s="6">
+        <v>43095</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="8">
+        <v>140</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="7"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="9"/>
+      <c r="B25" s="6">
+        <v>43096</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="8">
+        <v>218</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25" s="7"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26" s="9"/>
+      <c r="B26" s="6">
+        <v>43097</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="8">
+        <v>204.4</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" s="7"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27" s="9"/>
+      <c r="B27" s="6">
+        <v>43098</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="8">
+        <v>270</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" s="7"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28" s="9"/>
+      <c r="B28" s="6">
+        <v>43101</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="8">
+        <v>95.9</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" s="7"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29" s="9"/>
+      <c r="B29" s="6">
+        <v>43102</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="8">
+        <v>109</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G29" s="7"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A30" s="9"/>
+      <c r="B30" s="6">
+        <v>43103</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" s="8">
+        <v>198</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G30" s="7"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A31" s="9"/>
+      <c r="B31" s="6">
+        <v>43104</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" s="8">
+        <v>273</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31" s="7"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A32" s="9"/>
+      <c r="B32" s="6">
+        <v>43106</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" s="8">
+        <v>116</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" s="7"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A33" s="9"/>
+      <c r="B33" s="6">
+        <v>43107</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33" s="8">
+        <v>100</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" s="7"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A34" s="9"/>
+      <c r="B34" s="6">
+        <v>43108</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34" s="8">
+        <v>257</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G34" s="7"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A35" s="9"/>
+      <c r="B35" s="6">
+        <v>43109</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" s="8">
+        <v>224.1</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G35" s="7"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A36" s="9"/>
+      <c r="B36" s="6">
+        <v>43110</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E36" s="8">
+        <v>204</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G36" s="7"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A37" s="9"/>
+      <c r="B37" s="6">
+        <v>43111</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" s="8">
+        <v>83</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G37" s="7"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A38" s="9"/>
+      <c r="B38" s="6">
+        <v>43112</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E38" s="8">
         <v>160</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B25" s="4">
-        <v>43095</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E25" s="2">
-        <v>140</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B26" s="4">
-        <v>43096</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E26" s="2">
-        <v>218</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B27" s="4">
-        <v>43097</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E27" s="2">
-        <v>204.4</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B28" s="4">
-        <v>43098</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E28" s="2">
-        <v>270</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B29" s="4">
-        <v>43101</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E29" s="2">
-        <v>95.9</v>
-      </c>
-      <c r="F29" s="2" t="s">
+      <c r="F38" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G38" s="7"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A39" s="9"/>
+      <c r="B39" s="6">
+        <v>43113</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E39" s="8">
+        <v>100</v>
+      </c>
+      <c r="F39" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G29" s="3"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B30" s="4">
-        <v>43102</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E30" s="2">
-        <v>109</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G30" s="3"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B31" s="4">
-        <v>43103</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E31" s="2">
-        <v>198</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G31" s="3"/>
+      <c r="G39" s="7"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A40" s="9"/>
+      <c r="B40" s="6">
+        <v>43114</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E40" s="8">
+        <v>83</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G40" s="7"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A41" s="9"/>
+      <c r="B41" s="6">
+        <v>43115</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E41" s="8">
+        <v>209</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G41" s="7"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A42" s="9"/>
+      <c r="B42" s="6">
+        <v>43116</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E42" s="8">
+        <v>190</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G42" s="7"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A43" s="9"/>
+      <c r="B43" s="6">
+        <v>43117</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E43" s="8">
+        <v>225</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G43" s="7"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B44" s="6">
+        <v>43126</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E44" s="8">
+        <v>217</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G44" s="7"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B45" s="6">
+        <v>43129</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E45" s="8">
+        <v>195</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G45" s="7"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B46" s="6">
+        <v>43130</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E46" s="8">
+        <v>209</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G46" s="7"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B47" s="6">
+        <v>43133</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E47" s="8">
+        <v>300</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G47" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E7:E8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F32:F45">
-      <formula1>"招待费,加班费"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F31">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F22">
       <formula1>"招待费,周末加班费,工作日加班费"</formula1>
     </dataValidation>
   </dataValidations>
